--- a/morphometrics/Head/data/abcdef_complete.xlsx
+++ b/morphometrics/Head/data/abcdef_complete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Box/Sucker/Geometric_Morphometrics/Combined/Analysis/Analysis_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Library/CloudStorage/Box-Box/BYU/Sucker/Morphometrics/Geometric_Morphometrics/Combined/Analysis/Analysis_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686D5C48-18FC-6946-9201-45D77BF1F990}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77E46D1-850A-DD4E-877F-AA96BAF81020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="14300" xr2:uid="{AF9AF85F-1784-CD41-8106-7344DC166003}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12800" windowHeight="14400" xr2:uid="{AF9AF85F-1784-CD41-8106-7344DC166003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
   <si>
     <t>Name</t>
   </si>
@@ -1240,16 +1240,13 @@
   </si>
   <si>
     <t>S107d</t>
-  </si>
-  <si>
-    <t>CS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1608,19 +1605,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACD1A85-47EE-6F43-AC78-2C4BCCDC6454}">
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A368" workbookViewId="0">
+      <selection activeCell="F383" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="11.1640625" customWidth="1"/>
     <col min="10" max="16384" width="11.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1636,11 +1633,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1656,11 +1651,9 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
-        <v>2794.1789523906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1676,11 +1669,9 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
-        <v>3402.6873015491001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1696,11 +1687,9 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
-        <v>3292.4732165319001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1716,11 +1705,9 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
-        <v>2618.55267513543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1736,11 +1723,9 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>3278.5344264778901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1756,11 +1741,9 @@
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>2929.62504949913</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1776,11 +1759,9 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>3241.42524885176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1796,11 +1777,9 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>2778.8478401555399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1816,11 +1795,9 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
-        <v>3291.2004427871898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1836,11 +1813,9 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="3">
-        <v>2744.12112869879</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1856,11 +1831,9 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
-        <v>2889.0465148278499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1876,11 +1849,9 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="3">
-        <v>3196.9163978878801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1896,11 +1867,9 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>2626.1332535351398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1916,11 +1885,9 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="3">
-        <v>3898.39009873652</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1936,11 +1903,9 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="3">
-        <v>3236.0049562764302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1956,11 +1921,9 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="3">
-        <v>3792.2671695026902</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -1976,11 +1939,9 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="3">
-        <v>2783.7664036860401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1996,11 +1957,9 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="3">
-        <v>2397.1770944493101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -2016,11 +1975,9 @@
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="3">
-        <v>3445.8634644656199</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -2036,11 +1993,9 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="3">
-        <v>3689.6839475399902</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -2056,11 +2011,9 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="3">
-        <v>3171.1688716064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2076,11 +2029,9 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="3">
-        <v>3080.6145240840901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -2096,11 +2047,9 @@
       <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="F24" s="3">
-        <v>4330.6694776944396</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
@@ -2116,11 +2065,9 @@
       <c r="E25" s="2">
         <v>2</v>
       </c>
-      <c r="F25" s="3">
-        <v>4174.4569240388801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -2136,11 +2083,9 @@
       <c r="E26" s="2">
         <v>2</v>
       </c>
-      <c r="F26" s="3">
-        <v>4084.1839389220399</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -2156,11 +2101,9 @@
       <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="F27" s="3">
-        <v>4137.5152166096004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -2176,11 +2119,9 @@
       <c r="E28" s="2">
         <v>2</v>
       </c>
-      <c r="F28" s="3">
-        <v>4434.1413736308896</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
@@ -2196,11 +2137,9 @@
       <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F29" s="3">
-        <v>4857.1594602180603</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
@@ -2216,11 +2155,9 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="3">
-        <v>4010.9915032787799</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
@@ -2236,11 +2173,9 @@
       <c r="E31" s="2">
         <v>2</v>
       </c>
-      <c r="F31" s="3">
-        <v>3653.71257239737</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -2256,11 +2191,9 @@
       <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="3">
-        <v>4575.7569783048002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
@@ -2276,11 +2209,9 @@
       <c r="E33" s="2">
         <v>2</v>
       </c>
-      <c r="F33" s="3">
-        <v>4355.5628137515396</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -2296,11 +2227,9 @@
       <c r="E34" s="2">
         <v>2</v>
       </c>
-      <c r="F34" s="3">
-        <v>4568.7379818546297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
@@ -2316,11 +2245,9 @@
       <c r="E35" s="2">
         <v>2</v>
       </c>
-      <c r="F35" s="3">
-        <v>3680.5308057366001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>39</v>
       </c>
@@ -2336,11 +2263,9 @@
       <c r="E36" s="2">
         <v>2</v>
       </c>
-      <c r="F36" s="3">
-        <v>4011.2406899468901</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -2356,11 +2281,9 @@
       <c r="E37" s="2">
         <v>2</v>
       </c>
-      <c r="F37" s="3">
-        <v>4100.7430861825696</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>41</v>
       </c>
@@ -2376,11 +2299,9 @@
       <c r="E38" s="2">
         <v>2</v>
       </c>
-      <c r="F38" s="3">
-        <v>3645.6566649955398</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -2396,11 +2317,9 @@
       <c r="E39" s="2">
         <v>3</v>
       </c>
-      <c r="F39" s="3">
-        <v>4443.12240073659</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>43</v>
       </c>
@@ -2416,11 +2335,9 @@
       <c r="E40" s="2">
         <v>3</v>
       </c>
-      <c r="F40" s="3">
-        <v>5225.9777980604804</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>44</v>
       </c>
@@ -2436,11 +2353,9 @@
       <c r="E41" s="2">
         <v>3</v>
       </c>
-      <c r="F41" s="3">
-        <v>4899.5331294239504</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>45</v>
       </c>
@@ -2456,11 +2371,9 @@
       <c r="E42" s="2">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>4922.2069490495796</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -2476,11 +2389,9 @@
       <c r="E43" s="2">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>5038.5107767927802</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -2496,11 +2407,9 @@
       <c r="E44" s="2">
         <v>3</v>
       </c>
-      <c r="F44" s="3">
-        <v>4620.5248076277503</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
@@ -2516,11 +2425,9 @@
       <c r="E45" s="2">
         <v>3</v>
       </c>
-      <c r="F45" s="3">
-        <v>5170.7423392678402</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -2536,11 +2443,9 @@
       <c r="E46" s="2">
         <v>3</v>
       </c>
-      <c r="F46" s="3">
-        <v>4720.5802837639903</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>50</v>
       </c>
@@ -2556,11 +2461,9 @@
       <c r="E47" s="2">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>4701.3707620759296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
@@ -2576,11 +2479,9 @@
       <c r="E48" s="2">
         <v>3</v>
       </c>
-      <c r="F48" s="3">
-        <v>5130.7335420065901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
@@ -2596,11 +2497,9 @@
       <c r="E49" s="2">
         <v>3</v>
       </c>
-      <c r="F49" s="3">
-        <v>4630.35214859199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -2616,11 +2515,9 @@
       <c r="E50" s="2">
         <v>3</v>
       </c>
-      <c r="F50" s="3">
-        <v>4387.91162072116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -2636,11 +2533,9 @@
       <c r="E51" s="2">
         <v>3</v>
       </c>
-      <c r="F51" s="3">
-        <v>4601.2547515541601</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>55</v>
       </c>
@@ -2656,11 +2551,9 @@
       <c r="E52" s="2">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>3933.9215102002099</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>56</v>
       </c>
@@ -2676,11 +2569,9 @@
       <c r="E53" s="2">
         <v>3</v>
       </c>
-      <c r="F53" s="3">
-        <v>4879.6931701551603</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
@@ -2696,11 +2587,9 @@
       <c r="E54" s="2">
         <v>3</v>
       </c>
-      <c r="F54" s="3">
-        <v>5030.6017378840997</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>58</v>
       </c>
@@ -2716,11 +2605,9 @@
       <c r="E55" s="2">
         <v>3</v>
       </c>
-      <c r="F55" s="3">
-        <v>5007.0219942881404</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>59</v>
       </c>
@@ -2736,11 +2623,9 @@
       <c r="E56" s="2">
         <v>3</v>
       </c>
-      <c r="F56" s="3">
-        <v>5215.2742201944802</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -2756,11 +2641,9 @@
       <c r="E57" s="2">
         <v>3</v>
       </c>
-      <c r="F57" s="3">
-        <v>4780.1920353962896</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>61</v>
       </c>
@@ -2776,11 +2659,9 @@
       <c r="E58" s="2">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>5902.9294370766702</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>62</v>
       </c>
@@ -2796,11 +2677,9 @@
       <c r="E59" s="2">
         <v>3</v>
       </c>
-      <c r="F59" s="3">
-        <v>5659.1942208421297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
@@ -2816,11 +2695,9 @@
       <c r="E60" s="2">
         <v>3</v>
       </c>
-      <c r="F60" s="3">
-        <v>4568.4432026411596</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
@@ -2836,11 +2713,9 @@
       <c r="E61" s="2">
         <v>3</v>
       </c>
-      <c r="F61" s="3">
-        <v>5107.7137914117602</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>65</v>
       </c>
@@ -2856,11 +2731,9 @@
       <c r="E62" s="2">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
-        <v>4996.07781909801</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2876,11 +2749,9 @@
       <c r="E63" s="2">
         <v>3</v>
       </c>
-      <c r="F63" s="3">
-        <v>5024.4098607107699</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
@@ -2896,11 +2767,9 @@
       <c r="E64" s="2">
         <v>3</v>
       </c>
-      <c r="F64" s="3">
-        <v>3779.6168072189498</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
@@ -2916,11 +2785,9 @@
       <c r="E65" s="2">
         <v>3</v>
       </c>
-      <c r="F65" s="3">
-        <v>4728.2820983320398</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
@@ -2936,11 +2803,9 @@
       <c r="E66" s="2">
         <v>3</v>
       </c>
-      <c r="F66" s="3">
-        <v>5402.0587797101598</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>70</v>
       </c>
@@ -2956,11 +2821,9 @@
       <c r="E67" s="2">
         <v>3</v>
       </c>
-      <c r="F67" s="3">
-        <v>4304.5566325891004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>71</v>
       </c>
@@ -2976,11 +2839,9 @@
       <c r="E68" s="2">
         <v>3</v>
       </c>
-      <c r="F68" s="3">
-        <v>4608.49046512533</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>72</v>
       </c>
@@ -2996,11 +2857,9 @@
       <c r="E69" s="2">
         <v>3</v>
       </c>
-      <c r="F69" s="3">
-        <v>5060.88324458431</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>73</v>
       </c>
@@ -3016,11 +2875,9 @@
       <c r="E70" s="2">
         <v>3</v>
       </c>
-      <c r="F70" s="3">
-        <v>4000.9557072103598</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>74</v>
       </c>
@@ -3036,11 +2893,9 @@
       <c r="E71" s="2">
         <v>3</v>
       </c>
-      <c r="F71" s="3">
-        <v>3604.6776043730201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -3056,11 +2911,9 @@
       <c r="E72" s="2">
         <v>4</v>
       </c>
-      <c r="F72" s="3">
-        <v>6042.1700816090697</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
@@ -3076,11 +2929,9 @@
       <c r="E73" s="2">
         <v>4</v>
       </c>
-      <c r="F73" s="3">
-        <v>5795.9114912313798</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
@@ -3096,11 +2947,9 @@
       <c r="E74" s="2">
         <v>4</v>
       </c>
-      <c r="F74" s="3">
-        <v>6043.5154839773604</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>246</v>
       </c>
@@ -3116,11 +2965,9 @@
       <c r="E75" s="2">
         <v>4</v>
       </c>
-      <c r="F75" s="3">
-        <v>5526.3719694484998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>247</v>
       </c>
@@ -3136,11 +2983,9 @@
       <c r="E76" s="2">
         <v>4</v>
       </c>
-      <c r="F76" s="3">
-        <v>5121.69239075316</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>248</v>
       </c>
@@ -3156,11 +3001,9 @@
       <c r="E77" s="2">
         <v>4</v>
       </c>
-      <c r="F77" s="3">
-        <v>5505.3333985686604</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>78</v>
       </c>
@@ -3176,11 +3019,9 @@
       <c r="E78" s="2">
         <v>4</v>
       </c>
-      <c r="F78" s="3">
-        <v>5317.0485449115904</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>79</v>
       </c>
@@ -3196,11 +3037,9 @@
       <c r="E79" s="2">
         <v>4</v>
       </c>
-      <c r="F79" s="3">
-        <v>6066.0386257503596</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -3216,11 +3055,9 @@
       <c r="E80" s="2">
         <v>4</v>
       </c>
-      <c r="F80" s="3">
-        <v>5847.0302449683704</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>249</v>
       </c>
@@ -3236,11 +3073,9 @@
       <c r="E81" s="2">
         <v>4</v>
       </c>
-      <c r="F81" s="3">
-        <v>5609.4088629477101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>250</v>
       </c>
@@ -3256,11 +3091,9 @@
       <c r="E82" s="2">
         <v>4</v>
       </c>
-      <c r="F82" s="3">
-        <v>5323.2043762168996</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>251</v>
       </c>
@@ -3276,11 +3109,9 @@
       <c r="E83" s="2">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>5695.0692987100001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -3296,11 +3127,9 @@
       <c r="E84" s="2">
         <v>4</v>
       </c>
-      <c r="F84" s="3">
-        <v>4992.7812236574</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>82</v>
       </c>
@@ -3316,11 +3145,9 @@
       <c r="E85" s="2">
         <v>4</v>
       </c>
-      <c r="F85" s="3">
-        <v>5410.4634680953704</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>83</v>
       </c>
@@ -3336,11 +3163,9 @@
       <c r="E86" s="2">
         <v>4</v>
       </c>
-      <c r="F86" s="3">
-        <v>5413.8027501549795</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>252</v>
       </c>
@@ -3356,11 +3181,9 @@
       <c r="E87" s="2">
         <v>4</v>
       </c>
-      <c r="F87" s="3">
-        <v>6.3643560252342004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>253</v>
       </c>
@@ -3376,11 +3199,9 @@
       <c r="E88" s="2">
         <v>4</v>
       </c>
-      <c r="F88" s="3">
-        <v>5021.3096814766404</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>254</v>
       </c>
@@ -3396,11 +3217,9 @@
       <c r="E89" s="2">
         <v>4</v>
       </c>
-      <c r="F89" s="3">
-        <v>4058.5349996166001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>84</v>
       </c>
@@ -3416,11 +3235,9 @@
       <c r="E90" s="2">
         <v>4</v>
       </c>
-      <c r="F90" s="3">
-        <v>5885.15893172086</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>85</v>
       </c>
@@ -3436,11 +3253,9 @@
       <c r="E91" s="2">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>6126.0156653066397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>86</v>
       </c>
@@ -3456,11 +3271,9 @@
       <c r="E92" s="2">
         <v>4</v>
       </c>
-      <c r="F92" s="3">
-        <v>5736.3894797289604</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>255</v>
       </c>
@@ -3476,11 +3289,9 @@
       <c r="E93" s="2">
         <v>4</v>
       </c>
-      <c r="F93" s="3">
-        <v>5358.2838772677196</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>256</v>
       </c>
@@ -3496,11 +3307,9 @@
       <c r="E94" s="2">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
-        <v>6401.6954936558404</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>257</v>
       </c>
@@ -3516,11 +3325,9 @@
       <c r="E95" s="2">
         <v>4</v>
       </c>
-      <c r="F95" s="3">
-        <v>4360.5029633699196</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>87</v>
       </c>
@@ -3536,11 +3343,9 @@
       <c r="E96" s="2">
         <v>4</v>
       </c>
-      <c r="F96" s="3">
-        <v>5637.2555049984603</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>88</v>
       </c>
@@ -3556,11 +3361,9 @@
       <c r="E97" s="2">
         <v>4</v>
       </c>
-      <c r="F97" s="3">
-        <v>5531.8434994384697</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>89</v>
       </c>
@@ -3576,11 +3379,9 @@
       <c r="E98" s="2">
         <v>4</v>
       </c>
-      <c r="F98" s="3">
-        <v>5869.14513876816</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>258</v>
       </c>
@@ -3596,11 +3397,9 @@
       <c r="E99" s="2">
         <v>4</v>
       </c>
-      <c r="F99" s="3">
-        <v>5684.7419526133399</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>259</v>
       </c>
@@ -3616,11 +3415,9 @@
       <c r="E100" s="2">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>5370.9334246374901</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>260</v>
       </c>
@@ -3636,11 +3433,9 @@
       <c r="E101" s="2">
         <v>4</v>
       </c>
-      <c r="F101" s="3">
-        <v>6244.4741019672301</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>90</v>
       </c>
@@ -3656,11 +3451,9 @@
       <c r="E102" s="2">
         <v>4</v>
       </c>
-      <c r="F102" s="3">
-        <v>7166.8152322734104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>91</v>
       </c>
@@ -3676,11 +3469,9 @@
       <c r="E103" s="2">
         <v>4</v>
       </c>
-      <c r="F103" s="3">
-        <v>6719.5395868736296</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>92</v>
       </c>
@@ -3696,11 +3487,9 @@
       <c r="E104" s="2">
         <v>4</v>
       </c>
-      <c r="F104" s="3">
-        <v>7154.5841051447696</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>261</v>
       </c>
@@ -3716,11 +3505,9 @@
       <c r="E105" s="2">
         <v>4</v>
       </c>
-      <c r="F105" s="3">
-        <v>6592.25147562456</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>262</v>
       </c>
@@ -3736,11 +3523,9 @@
       <c r="E106" s="2">
         <v>4</v>
       </c>
-      <c r="F106" s="3">
-        <v>7.5939325303449898</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>263</v>
       </c>
@@ -3756,11 +3541,9 @@
       <c r="E107" s="2">
         <v>4</v>
       </c>
-      <c r="F107" s="3">
-        <v>5498.1001789329403</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>93</v>
       </c>
@@ -3776,11 +3559,9 @@
       <c r="E108" s="2">
         <v>5</v>
       </c>
-      <c r="F108" s="3">
-        <v>6826.0747753384203</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>94</v>
       </c>
@@ -3796,11 +3577,9 @@
       <c r="E109" s="2">
         <v>5</v>
       </c>
-      <c r="F109" s="3">
-        <v>6626.5357923854999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>95</v>
       </c>
@@ -3816,11 +3595,9 @@
       <c r="E110" s="2">
         <v>5</v>
       </c>
-      <c r="F110" s="3">
-        <v>4922.77671841551</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>264</v>
       </c>
@@ -3836,11 +3613,9 @@
       <c r="E111" s="2">
         <v>5</v>
       </c>
-      <c r="F111" s="3">
-        <v>6780.6988276095899</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>265</v>
       </c>
@@ -3856,11 +3631,9 @@
       <c r="E112" s="2">
         <v>5</v>
       </c>
-      <c r="F112" s="3">
-        <v>6001.2169808908802</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>266</v>
       </c>
@@ -3876,11 +3649,9 @@
       <c r="E113" s="2">
         <v>5</v>
       </c>
-      <c r="F113" s="3">
-        <v>6908.7587520696798</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>96</v>
       </c>
@@ -3896,11 +3667,9 @@
       <c r="E114" s="2">
         <v>5</v>
       </c>
-      <c r="F114" s="3">
-        <v>6644.7189959133502</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>97</v>
       </c>
@@ -3916,11 +3685,9 @@
       <c r="E115" s="2">
         <v>5</v>
       </c>
-      <c r="F115" s="3">
-        <v>7284.9456742274197</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>98</v>
       </c>
@@ -3936,11 +3703,9 @@
       <c r="E116" s="2">
         <v>5</v>
       </c>
-      <c r="F116" s="3">
-        <v>5736.9608161464703</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>267</v>
       </c>
@@ -3956,11 +3721,9 @@
       <c r="E117" s="2">
         <v>5</v>
       </c>
-      <c r="F117" s="3">
-        <v>7.4210437617159499</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>268</v>
       </c>
@@ -3976,11 +3739,9 @@
       <c r="E118" s="2">
         <v>5</v>
       </c>
-      <c r="F118" s="3">
-        <v>6145.6531512356396</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>269</v>
       </c>
@@ -3996,11 +3757,9 @@
       <c r="E119" s="2">
         <v>5</v>
       </c>
-      <c r="F119" s="3">
-        <v>6642.6404796513498</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>99</v>
       </c>
@@ -4016,11 +3775,9 @@
       <c r="E120" s="2">
         <v>5</v>
       </c>
-      <c r="F120" s="3">
-        <v>7.41305060256924</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>100</v>
       </c>
@@ -4036,11 +3793,9 @@
       <c r="E121" s="2">
         <v>5</v>
       </c>
-      <c r="F121" s="3">
-        <v>6965.3014215642897</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>101</v>
       </c>
@@ -4056,11 +3811,9 @@
       <c r="E122" s="2">
         <v>5</v>
       </c>
-      <c r="F122" s="3">
-        <v>6373.1478830211599</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>270</v>
       </c>
@@ -4076,11 +3829,9 @@
       <c r="E123" s="2">
         <v>5</v>
       </c>
-      <c r="F123" s="3">
-        <v>6798.2875186932397</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>102</v>
       </c>
@@ -4096,11 +3847,9 @@
       <c r="E124" s="2">
         <v>5</v>
       </c>
-      <c r="F124" s="3">
-        <v>6937.5921914413102</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>103</v>
       </c>
@@ -4116,11 +3865,9 @@
       <c r="E125" s="2">
         <v>5</v>
       </c>
-      <c r="F125" s="3">
-        <v>6700.9004214045899</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>104</v>
       </c>
@@ -4136,11 +3883,9 @@
       <c r="E126" s="2">
         <v>5</v>
       </c>
-      <c r="F126" s="3">
-        <v>7241.5022817483004</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>271</v>
       </c>
@@ -4156,11 +3901,9 @@
       <c r="E127" s="2">
         <v>5</v>
       </c>
-      <c r="F127" s="3">
-        <v>6.6947579255537102</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>272</v>
       </c>
@@ -4176,11 +3919,9 @@
       <c r="E128" s="2">
         <v>5</v>
       </c>
-      <c r="F128" s="3">
-        <v>6278.4830496033301</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>273</v>
       </c>
@@ -4196,11 +3937,9 @@
       <c r="E129" s="2">
         <v>5</v>
       </c>
-      <c r="F129" s="3">
-        <v>6754.1938344164</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>105</v>
       </c>
@@ -4216,11 +3955,9 @@
       <c r="E130" s="2">
         <v>5</v>
       </c>
-      <c r="F130" s="3">
-        <v>7735.73522394683</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>106</v>
       </c>
@@ -4236,11 +3973,9 @@
       <c r="E131" s="2">
         <v>5</v>
       </c>
-      <c r="F131" s="3">
-        <v>6541.4139294065499</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>107</v>
       </c>
@@ -4256,11 +3991,9 @@
       <c r="E132" s="2">
         <v>5</v>
       </c>
-      <c r="F132" s="3">
-        <v>7874.0062768222097</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>274</v>
       </c>
@@ -4276,11 +4009,9 @@
       <c r="E133" s="2">
         <v>5</v>
       </c>
-      <c r="F133" s="3">
-        <v>6447.80932474355</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>275</v>
       </c>
@@ -4296,11 +4027,9 @@
       <c r="E134" s="2">
         <v>5</v>
       </c>
-      <c r="F134" s="3">
-        <v>7.3569412756800396</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>108</v>
       </c>
@@ -4316,11 +4045,9 @@
       <c r="E135" s="2">
         <v>5</v>
       </c>
-      <c r="F135" s="3">
-        <v>6857.0726918761602</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>109</v>
       </c>
@@ -4336,11 +4063,9 @@
       <c r="E136" s="2">
         <v>5</v>
       </c>
-      <c r="F136" s="3">
-        <v>6528.4381809837896</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>110</v>
       </c>
@@ -4356,11 +4081,9 @@
       <c r="E137" s="2">
         <v>5</v>
       </c>
-      <c r="F137" s="3">
-        <v>7257.60445991304</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>276</v>
       </c>
@@ -4376,11 +4099,9 @@
       <c r="E138" s="2">
         <v>5</v>
       </c>
-      <c r="F138" s="3">
-        <v>5998.9045827589898</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>277</v>
       </c>
@@ -4396,11 +4117,9 @@
       <c r="E139" s="2">
         <v>5</v>
       </c>
-      <c r="F139" s="3">
-        <v>6145.4904961485199</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>278</v>
       </c>
@@ -4416,11 +4135,9 @@
       <c r="E140" s="2">
         <v>5</v>
       </c>
-      <c r="F140" s="3">
-        <v>5597.0609325587402</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>111</v>
       </c>
@@ -4436,11 +4153,9 @@
       <c r="E141" s="2">
         <v>6</v>
       </c>
-      <c r="F141" s="3">
-        <v>6643.7947354814696</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>112</v>
       </c>
@@ -4456,11 +4171,9 @@
       <c r="E142" s="2">
         <v>6</v>
       </c>
-      <c r="F142" s="3">
-        <v>7.5951824370105303</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>113</v>
       </c>
@@ -4476,11 +4189,9 @@
       <c r="E143" s="2">
         <v>6</v>
       </c>
-      <c r="F143" s="3">
-        <v>6.4442231403541799</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>279</v>
       </c>
@@ -4496,11 +4207,9 @@
       <c r="E144" s="2">
         <v>6</v>
       </c>
-      <c r="F144" s="3">
-        <v>6611.0124432162102</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>280</v>
       </c>
@@ -4516,11 +4225,9 @@
       <c r="E145" s="2">
         <v>6</v>
       </c>
-      <c r="F145" s="3">
-        <v>7263.5344576338603</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>114</v>
       </c>
@@ -4536,11 +4243,9 @@
       <c r="E146" s="2">
         <v>6</v>
       </c>
-      <c r="F146" s="3">
-        <v>7599.1833300059297</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>115</v>
       </c>
@@ -4556,11 +4261,9 @@
       <c r="E147" s="2">
         <v>6</v>
       </c>
-      <c r="F147" s="3">
-        <v>8.1591047932386704</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>116</v>
       </c>
@@ -4576,11 +4279,9 @@
       <c r="E148" s="2">
         <v>6</v>
       </c>
-      <c r="F148" s="3">
-        <v>7.3128832873790097</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>281</v>
       </c>
@@ -4596,11 +4297,9 @@
       <c r="E149" s="2">
         <v>6</v>
       </c>
-      <c r="F149" s="3">
-        <v>7433.7812311573498</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>282</v>
       </c>
@@ -4616,11 +4315,9 @@
       <c r="E150" s="2">
         <v>6</v>
       </c>
-      <c r="F150" s="3">
-        <v>6356.12350017674</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>117</v>
       </c>
@@ -4636,11 +4333,9 @@
       <c r="E151" s="2">
         <v>6</v>
       </c>
-      <c r="F151" s="3">
-        <v>6330.3407476824896</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>118</v>
       </c>
@@ -4656,11 +4351,9 @@
       <c r="E152" s="2">
         <v>6</v>
       </c>
-      <c r="F152" s="3">
-        <v>7.0289340077535902</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>119</v>
       </c>
@@ -4676,11 +4369,9 @@
       <c r="E153" s="2">
         <v>6</v>
       </c>
-      <c r="F153" s="3">
-        <v>6.64732903330773</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>283</v>
       </c>
@@ -4696,11 +4387,9 @@
       <c r="E154" s="2">
         <v>6</v>
       </c>
-      <c r="F154" s="3">
-        <v>6783.15574031907</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>284</v>
       </c>
@@ -4716,11 +4405,9 @@
       <c r="E155" s="2">
         <v>6</v>
       </c>
-      <c r="F155" s="3">
-        <v>8.0278541632913196</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>120</v>
       </c>
@@ -4736,11 +4423,9 @@
       <c r="E156" s="2">
         <v>6</v>
       </c>
-      <c r="F156" s="3">
-        <v>7.8788448861337397</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>121</v>
       </c>
@@ -4756,11 +4441,9 @@
       <c r="E157" s="2">
         <v>6</v>
       </c>
-      <c r="F157" s="3">
-        <v>7.5360157620107104</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>122</v>
       </c>
@@ -4776,11 +4459,9 @@
       <c r="E158" s="2">
         <v>6</v>
       </c>
-      <c r="F158" s="3">
-        <v>7.5499616012839903</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>285</v>
       </c>
@@ -4796,11 +4477,9 @@
       <c r="E159" s="2">
         <v>6</v>
       </c>
-      <c r="F159" s="3">
-        <v>7.5985614097480099</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>286</v>
       </c>
@@ -4816,11 +4495,9 @@
       <c r="E160" s="2">
         <v>6</v>
       </c>
-      <c r="F160" s="3">
-        <v>7027.3575536346298</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>287</v>
       </c>
@@ -4836,11 +4513,9 @@
       <c r="E161" s="2">
         <v>6</v>
       </c>
-      <c r="F161" s="3">
-        <v>6829.2757317941796</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>123</v>
       </c>
@@ -4856,11 +4531,9 @@
       <c r="E162" s="2">
         <v>6</v>
       </c>
-      <c r="F162" s="3">
-        <v>8.0359421100083992</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>124</v>
       </c>
@@ -4876,11 +4549,9 @@
       <c r="E163" s="2">
         <v>6</v>
       </c>
-      <c r="F163" s="3">
-        <v>8.1221711314071001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>125</v>
       </c>
@@ -4896,11 +4567,9 @@
       <c r="E164" s="2">
         <v>6</v>
       </c>
-      <c r="F164" s="3">
-        <v>7.9629036377367797</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>288</v>
       </c>
@@ -4916,11 +4585,9 @@
       <c r="E165" s="2">
         <v>6</v>
       </c>
-      <c r="F165" s="3">
-        <v>7.9724249716255704</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>289</v>
       </c>
@@ -4936,11 +4603,9 @@
       <c r="E166" s="2">
         <v>6</v>
       </c>
-      <c r="F166" s="3">
-        <v>6590.64640689311</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>290</v>
       </c>
@@ -4956,11 +4621,9 @@
       <c r="E167" s="2">
         <v>6</v>
       </c>
-      <c r="F167" s="3">
-        <v>7.5576224189733496</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>126</v>
       </c>
@@ -4976,11 +4639,9 @@
       <c r="E168" s="2">
         <v>6</v>
       </c>
-      <c r="F168" s="3">
-        <v>8.4596302450363403</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>127</v>
       </c>
@@ -4996,11 +4657,9 @@
       <c r="E169" s="2">
         <v>6</v>
       </c>
-      <c r="F169" s="3">
-        <v>7.8676661872716496</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>128</v>
       </c>
@@ -5016,11 +4675,9 @@
       <c r="E170" s="2">
         <v>6</v>
       </c>
-      <c r="F170" s="3">
-        <v>7.8128649140789799</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>291</v>
       </c>
@@ -5036,11 +4693,9 @@
       <c r="E171" s="2">
         <v>6</v>
       </c>
-      <c r="F171" s="3">
-        <v>7.8293264401293099</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>292</v>
       </c>
@@ -5056,11 +4711,9 @@
       <c r="E172" s="2">
         <v>6</v>
       </c>
-      <c r="F172" s="3">
-        <v>8.7469008015908898</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>293</v>
       </c>
@@ -5076,11 +4729,9 @@
       <c r="E173" s="2">
         <v>6</v>
       </c>
-      <c r="F173" s="3">
-        <v>5575.4539458176096</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>129</v>
       </c>
@@ -5096,11 +4747,9 @@
       <c r="E174" s="2">
         <v>7</v>
       </c>
-      <c r="F174" s="3">
-        <v>7.9525268056953804</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>130</v>
       </c>
@@ -5116,11 +4765,9 @@
       <c r="E175" s="2">
         <v>7</v>
       </c>
-      <c r="F175" s="3">
-        <v>7.5138119252669604</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>131</v>
       </c>
@@ -5136,11 +4783,9 @@
       <c r="E176" s="2">
         <v>7</v>
       </c>
-      <c r="F176" s="3">
-        <v>7.96298661627005</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>294</v>
       </c>
@@ -5156,11 +4801,9 @@
       <c r="E177" s="2">
         <v>7</v>
       </c>
-      <c r="F177" s="3">
-        <v>7135.1378248017299</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>295</v>
       </c>
@@ -5176,11 +4819,9 @@
       <c r="E178" s="2">
         <v>7</v>
       </c>
-      <c r="F178" s="3">
-        <v>5608.1627538501498</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>296</v>
       </c>
@@ -5196,11 +4837,9 @@
       <c r="E179" s="2">
         <v>7</v>
       </c>
-      <c r="F179" s="3">
-        <v>5898.4625312232602</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>132</v>
       </c>
@@ -5216,11 +4855,9 @@
       <c r="E180" s="2">
         <v>7</v>
       </c>
-      <c r="F180" s="3">
-        <v>6.8553249136611001</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>133</v>
       </c>
@@ -5236,11 +4873,9 @@
       <c r="E181" s="2">
         <v>7</v>
       </c>
-      <c r="F181" s="3">
-        <v>8.3463946936031999</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>134</v>
       </c>
@@ -5256,11 +4891,9 @@
       <c r="E182" s="2">
         <v>7</v>
       </c>
-      <c r="F182" s="3">
-        <v>8.3540421460840903</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>297</v>
       </c>
@@ -5276,11 +4909,9 @@
       <c r="E183" s="2">
         <v>7</v>
       </c>
-      <c r="F183" s="3">
-        <v>8095.5121589828505</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>298</v>
       </c>
@@ -5296,11 +4927,9 @@
       <c r="E184" s="2">
         <v>7</v>
       </c>
-      <c r="F184" s="3">
-        <v>6758.6109721522898</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>299</v>
       </c>
@@ -5316,11 +4945,9 @@
       <c r="E185" s="2">
         <v>7</v>
       </c>
-      <c r="F185" s="3">
-        <v>6674.6548310264798</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>135</v>
       </c>
@@ -5336,11 +4963,9 @@
       <c r="E186" s="2">
         <v>7</v>
       </c>
-      <c r="F186" s="3">
-        <v>8.2047325211003006</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>136</v>
       </c>
@@ -5356,11 +4981,9 @@
       <c r="E187" s="2">
         <v>7</v>
       </c>
-      <c r="F187" s="3">
-        <v>8.6770878140944507</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>137</v>
       </c>
@@ -5376,11 +4999,9 @@
       <c r="E188" s="2">
         <v>7</v>
       </c>
-      <c r="F188" s="3">
-        <v>8.5236109500126105</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>300</v>
       </c>
@@ -5396,11 +5017,9 @@
       <c r="E189" s="2">
         <v>7</v>
       </c>
-      <c r="F189" s="3">
-        <v>8.4830501080353393</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>301</v>
       </c>
@@ -5416,11 +5035,9 @@
       <c r="E190" s="2">
         <v>7</v>
       </c>
-      <c r="F190" s="3">
-        <v>7178.2877545125102</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>302</v>
       </c>
@@ -5436,11 +5053,9 @@
       <c r="E191" s="2">
         <v>7</v>
       </c>
-      <c r="F191" s="3">
-        <v>7014.3801907739999</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>138</v>
       </c>
@@ -5456,11 +5071,9 @@
       <c r="E192" s="2">
         <v>7</v>
       </c>
-      <c r="F192" s="3">
-        <v>6.8448856844433799</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>139</v>
       </c>
@@ -5476,11 +5089,9 @@
       <c r="E193" s="2">
         <v>7</v>
       </c>
-      <c r="F193" s="3">
-        <v>7.4872291489047296</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>140</v>
       </c>
@@ -5496,11 +5107,9 @@
       <c r="E194" s="2">
         <v>7</v>
       </c>
-      <c r="F194" s="3">
-        <v>7.4339989179607304</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>303</v>
       </c>
@@ -5516,11 +5125,9 @@
       <c r="E195" s="2">
         <v>7</v>
       </c>
-      <c r="F195" s="3">
-        <v>6031.4153991738804</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>304</v>
       </c>
@@ -5536,11 +5143,9 @@
       <c r="E196" s="2">
         <v>7</v>
       </c>
-      <c r="F196" s="3">
-        <v>7269.8629888812402</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>305</v>
       </c>
@@ -5556,11 +5161,9 @@
       <c r="E197" s="2">
         <v>7</v>
       </c>
-      <c r="F197" s="3">
-        <v>7.9942586135074398</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>141</v>
       </c>
@@ -5576,11 +5179,9 @@
       <c r="E198" s="2">
         <v>7</v>
       </c>
-      <c r="F198" s="3">
-        <v>7.0876483008338003</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>142</v>
       </c>
@@ -5596,11 +5197,9 @@
       <c r="E199" s="2">
         <v>7</v>
       </c>
-      <c r="F199" s="3">
-        <v>5.7285739559539204</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>143</v>
       </c>
@@ -5616,11 +5215,9 @@
       <c r="E200" s="2">
         <v>7</v>
       </c>
-      <c r="F200" s="3">
-        <v>6.7439423130694403</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>306</v>
       </c>
@@ -5636,11 +5233,9 @@
       <c r="E201" s="2">
         <v>7</v>
       </c>
-      <c r="F201" s="3">
-        <v>4806.9518324110104</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>307</v>
       </c>
@@ -5656,11 +5251,9 @@
       <c r="E202" s="2">
         <v>7</v>
       </c>
-      <c r="F202" s="3">
-        <v>5097.5952869778002</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>308</v>
       </c>
@@ -5676,11 +5269,9 @@
       <c r="E203" s="2">
         <v>7</v>
       </c>
-      <c r="F203" s="3">
-        <v>5630.4299013562104</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>144</v>
       </c>
@@ -5696,11 +5287,9 @@
       <c r="E204" s="2">
         <v>7</v>
       </c>
-      <c r="F204" s="3">
-        <v>7.8543647356140696</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>145</v>
       </c>
@@ -5716,11 +5305,9 @@
       <c r="E205" s="2">
         <v>7</v>
       </c>
-      <c r="F205" s="3">
-        <v>8.33539764820177</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>146</v>
       </c>
@@ -5736,11 +5323,9 @@
       <c r="E206" s="2">
         <v>7</v>
       </c>
-      <c r="F206" s="3">
-        <v>8.3538551686259908</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>309</v>
       </c>
@@ -5756,11 +5341,9 @@
       <c r="E207" s="2">
         <v>7</v>
       </c>
-      <c r="F207" s="3">
-        <v>9.5161901783455995</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>310</v>
       </c>
@@ -5776,11 +5359,9 @@
       <c r="E208" s="2">
         <v>7</v>
       </c>
-      <c r="F208" s="3">
-        <v>7.20239556554451</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>311</v>
       </c>
@@ -5796,11 +5377,9 @@
       <c r="E209" s="2">
         <v>7</v>
       </c>
-      <c r="F209" s="3">
-        <v>6688.8588404604598</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>147</v>
       </c>
@@ -5816,11 +5395,9 @@
       <c r="E210" s="2">
         <v>8</v>
       </c>
-      <c r="F210" s="3">
-        <v>8.2125447532411808</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>148</v>
       </c>
@@ -5836,11 +5413,9 @@
       <c r="E211" s="2">
         <v>8</v>
       </c>
-      <c r="F211" s="3">
-        <v>7.1802238696301099</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>149</v>
       </c>
@@ -5856,11 +5431,9 @@
       <c r="E212" s="2">
         <v>8</v>
       </c>
-      <c r="F212" s="3">
-        <v>8.4549200874547505</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>312</v>
       </c>
@@ -5876,11 +5449,9 @@
       <c r="E213" s="2">
         <v>8</v>
       </c>
-      <c r="F213" s="3">
-        <v>7.6533971217047103</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>313</v>
       </c>
@@ -5896,11 +5467,9 @@
       <c r="E214" s="2">
         <v>8</v>
       </c>
-      <c r="F214" s="3">
-        <v>5805.1913513810196</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>314</v>
       </c>
@@ -5916,11 +5485,9 @@
       <c r="E215" s="2">
         <v>8</v>
       </c>
-      <c r="F215" s="3">
-        <v>7.7575300956205497</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>150</v>
       </c>
@@ -5936,11 +5503,9 @@
       <c r="E216" s="2">
         <v>8</v>
       </c>
-      <c r="F216" s="3">
-        <v>7.1832532459581202</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>151</v>
       </c>
@@ -5956,11 +5521,9 @@
       <c r="E217" s="2">
         <v>8</v>
       </c>
-      <c r="F217" s="3">
-        <v>7.4340221272519198</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>152</v>
       </c>
@@ -5976,11 +5539,9 @@
       <c r="E218" s="2">
         <v>8</v>
       </c>
-      <c r="F218" s="3">
-        <v>7.0871108876575102</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>315</v>
       </c>
@@ -5996,11 +5557,9 @@
       <c r="E219" s="2">
         <v>8</v>
       </c>
-      <c r="F219" s="3">
-        <v>7.8273980519581103</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="F219" s="3"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>316</v>
       </c>
@@ -6016,11 +5575,9 @@
       <c r="E220" s="2">
         <v>8</v>
       </c>
-      <c r="F220" s="3">
-        <v>6910.90027073896</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>153</v>
       </c>
@@ -6036,11 +5593,9 @@
       <c r="E221" s="2">
         <v>8</v>
       </c>
-      <c r="F221" s="3">
-        <v>8.7268969679979502</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>154</v>
       </c>
@@ -6056,11 +5611,9 @@
       <c r="E222" s="2">
         <v>8</v>
       </c>
-      <c r="F222" s="3">
-        <v>8.9629330095728097</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="F222" s="3"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>155</v>
       </c>
@@ -6076,11 +5629,9 @@
       <c r="E223" s="2">
         <v>8</v>
       </c>
-      <c r="F223" s="3">
-        <v>7.4906321368090802</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="F223" s="3"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>317</v>
       </c>
@@ -6096,11 +5647,9 @@
       <c r="E224" s="2">
         <v>8</v>
       </c>
-      <c r="F224" s="3">
-        <v>10.0211506712033</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="F224" s="3"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>318</v>
       </c>
@@ -6116,11 +5665,9 @@
       <c r="E225" s="2">
         <v>8</v>
       </c>
-      <c r="F225" s="3">
-        <v>7.4443770051221003</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="F225" s="3"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>319</v>
       </c>
@@ -6136,11 +5683,9 @@
       <c r="E226" s="2">
         <v>8</v>
       </c>
-      <c r="F226" s="3">
-        <v>9.5823688809206597</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="F226" s="3"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>399</v>
       </c>
@@ -6156,11 +5701,9 @@
       <c r="E227" s="2">
         <v>8</v>
       </c>
-      <c r="F227" s="3">
-        <v>9.1611360485423692</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="F227" s="3"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>156</v>
       </c>
@@ -6176,11 +5719,9 @@
       <c r="E228" s="2">
         <v>8</v>
       </c>
-      <c r="F228" s="3">
-        <v>6.8570421310502603</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>157</v>
       </c>
@@ -6196,11 +5737,9 @@
       <c r="E229" s="2">
         <v>8</v>
       </c>
-      <c r="F229" s="3">
-        <v>8.2685588399658805</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>158</v>
       </c>
@@ -6216,11 +5755,9 @@
       <c r="E230" s="2">
         <v>8</v>
       </c>
-      <c r="F230" s="3">
-        <v>7.9128661241897396</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>320</v>
       </c>
@@ -6236,11 +5773,9 @@
       <c r="E231" s="2">
         <v>8</v>
       </c>
-      <c r="F231" s="3">
-        <v>8.6469010454827409</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>321</v>
       </c>
@@ -6256,11 +5791,9 @@
       <c r="E232" s="2">
         <v>8</v>
       </c>
-      <c r="F232" s="3">
-        <v>7.5774786281223099</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="F232" s="3"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>322</v>
       </c>
@@ -6276,11 +5809,9 @@
       <c r="E233" s="2">
         <v>8</v>
       </c>
-      <c r="F233" s="3">
-        <v>5903.7366838751796</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>159</v>
       </c>
@@ -6296,11 +5827,9 @@
       <c r="E234" s="2">
         <v>8</v>
       </c>
-      <c r="F234" s="3">
-        <v>8.9764085121543999</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="F234" s="3"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>160</v>
       </c>
@@ -6316,11 +5845,9 @@
       <c r="E235" s="2">
         <v>8</v>
       </c>
-      <c r="F235" s="3">
-        <v>9.8633383024699697</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>161</v>
       </c>
@@ -6336,11 +5863,9 @@
       <c r="E236" s="2">
         <v>8</v>
       </c>
-      <c r="F236" s="3">
-        <v>9.0558584049134598</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>323</v>
       </c>
@@ -6356,11 +5881,9 @@
       <c r="E237" s="2">
         <v>8</v>
       </c>
-      <c r="F237" s="3">
-        <v>6882.51899185615</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>324</v>
       </c>
@@ -6376,11 +5899,9 @@
       <c r="E238" s="2">
         <v>8</v>
       </c>
-      <c r="F238" s="3">
-        <v>10.2910008170645</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>325</v>
       </c>
@@ -6396,11 +5917,9 @@
       <c r="E239" s="2">
         <v>8</v>
       </c>
-      <c r="F239" s="3">
-        <v>10.690250021195901</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>162</v>
       </c>
@@ -6416,11 +5935,9 @@
       <c r="E240" s="2">
         <v>8</v>
       </c>
-      <c r="F240" s="3">
-        <v>8.2703005299077201</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>163</v>
       </c>
@@ -6436,11 +5953,9 @@
       <c r="E241" s="2">
         <v>8</v>
       </c>
-      <c r="F241" s="3">
-        <v>7.2435467087608796</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>164</v>
       </c>
@@ -6456,11 +5971,9 @@
       <c r="E242" s="2">
         <v>8</v>
       </c>
-      <c r="F242" s="3">
-        <v>10.628258565808601</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>326</v>
       </c>
@@ -6476,11 +5989,9 @@
       <c r="E243" s="2">
         <v>8</v>
       </c>
-      <c r="F243" s="3">
-        <v>7.5863889337307002</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="F243" s="3"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>327</v>
       </c>
@@ -6496,11 +6007,9 @@
       <c r="E244" s="2">
         <v>8</v>
       </c>
-      <c r="F244" s="3">
-        <v>6482.8932988226397</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>165</v>
       </c>
@@ -6516,11 +6025,9 @@
       <c r="E245" s="2">
         <v>9</v>
       </c>
-      <c r="F245" s="3">
-        <v>7.5433647154339898</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>166</v>
       </c>
@@ -6536,11 +6043,9 @@
       <c r="E246" s="2">
         <v>9</v>
       </c>
-      <c r="F246" s="3">
-        <v>7.6813582757210099</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>167</v>
       </c>
@@ -6556,11 +6061,9 @@
       <c r="E247" s="2">
         <v>9</v>
       </c>
-      <c r="F247" s="3">
-        <v>8.4832206598371904</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>328</v>
       </c>
@@ -6576,11 +6079,9 @@
       <c r="E248" s="2">
         <v>9</v>
       </c>
-      <c r="F248" s="3">
-        <v>6566.8179064992601</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="F248" s="3"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>168</v>
       </c>
@@ -6596,11 +6097,9 @@
       <c r="E249" s="2">
         <v>9</v>
       </c>
-      <c r="F249" s="3">
-        <v>6347.3885257434304</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>169</v>
       </c>
@@ -6616,11 +6115,9 @@
       <c r="E250" s="2">
         <v>9</v>
       </c>
-      <c r="F250" s="3">
-        <v>8.3424548764683806</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>170</v>
       </c>
@@ -6636,11 +6133,9 @@
       <c r="E251" s="2">
         <v>9</v>
       </c>
-      <c r="F251" s="3">
-        <v>8.0352274843910507</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="F251" s="3"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>329</v>
       </c>
@@ -6656,11 +6151,9 @@
       <c r="E252" s="2">
         <v>9</v>
       </c>
-      <c r="F252" s="3">
-        <v>10.659054583376699</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>171</v>
       </c>
@@ -6676,11 +6169,9 @@
       <c r="E253" s="2">
         <v>9</v>
       </c>
-      <c r="F253" s="3">
-        <v>8.7039975251744508</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>172</v>
       </c>
@@ -6696,11 +6187,9 @@
       <c r="E254" s="2">
         <v>9</v>
       </c>
-      <c r="F254" s="3">
-        <v>7.5675785938361901</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>173</v>
       </c>
@@ -6716,11 +6205,9 @@
       <c r="E255" s="2">
         <v>9</v>
       </c>
-      <c r="F255" s="3">
-        <v>8.2603900334747102</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>330</v>
       </c>
@@ -6736,11 +6223,9 @@
       <c r="E256" s="2">
         <v>9</v>
       </c>
-      <c r="F256" s="3">
-        <v>7274.3729464218204</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>331</v>
       </c>
@@ -6756,11 +6241,9 @@
       <c r="E257" s="2">
         <v>9</v>
       </c>
-      <c r="F257" s="3">
-        <v>7213.9767568339203</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>174</v>
       </c>
@@ -6776,11 +6259,9 @@
       <c r="E258" s="2">
         <v>9</v>
       </c>
-      <c r="F258" s="3">
-        <v>9.2401798563204594</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>175</v>
       </c>
@@ -6796,11 +6277,9 @@
       <c r="E259" s="2">
         <v>9</v>
       </c>
-      <c r="F259" s="3">
-        <v>7.9498452598536096</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="F259" s="3"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>176</v>
       </c>
@@ -6816,11 +6295,9 @@
       <c r="E260" s="2">
         <v>9</v>
       </c>
-      <c r="F260" s="3">
-        <v>9.2284904442581297</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>332</v>
       </c>
@@ -6836,11 +6313,9 @@
       <c r="E261" s="2">
         <v>9</v>
       </c>
-      <c r="F261" s="3">
-        <v>9.6346047642067596</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="F261" s="3"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>333</v>
       </c>
@@ -6856,11 +6331,9 @@
       <c r="E262" s="2">
         <v>9</v>
       </c>
-      <c r="F262" s="3">
-        <v>9.3023731418740105</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>334</v>
       </c>
@@ -6876,11 +6349,9 @@
       <c r="E263" s="2">
         <v>9</v>
       </c>
-      <c r="F263" s="3">
-        <v>6843.0019884183102</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>177</v>
       </c>
@@ -6896,11 +6367,9 @@
       <c r="E264" s="2">
         <v>9</v>
       </c>
-      <c r="F264" s="3">
-        <v>9.5368941547090795</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>178</v>
       </c>
@@ -6916,11 +6385,9 @@
       <c r="E265" s="2">
         <v>9</v>
       </c>
-      <c r="F265" s="3">
-        <v>8.4793907128856798</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>179</v>
       </c>
@@ -6936,11 +6403,9 @@
       <c r="E266" s="2">
         <v>9</v>
       </c>
-      <c r="F266" s="3">
-        <v>7.6474638630770402</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>335</v>
       </c>
@@ -6956,11 +6421,9 @@
       <c r="E267" s="2">
         <v>9</v>
       </c>
-      <c r="F267" s="3">
-        <v>9.7481018429084507</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>336</v>
       </c>
@@ -6976,11 +6439,9 @@
       <c r="E268" s="2">
         <v>9</v>
       </c>
-      <c r="F268" s="3">
-        <v>9.6081415342995005</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>337</v>
       </c>
@@ -6996,11 +6457,9 @@
       <c r="E269" s="2">
         <v>9</v>
       </c>
-      <c r="F269" s="3">
-        <v>7430.8735960256499</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>180</v>
       </c>
@@ -7016,11 +6475,9 @@
       <c r="E270" s="2">
         <v>9</v>
       </c>
-      <c r="F270" s="3">
-        <v>8.4340533785587208</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>181</v>
       </c>
@@ -7036,11 +6493,9 @@
       <c r="E271" s="2">
         <v>9</v>
       </c>
-      <c r="F271" s="3">
-        <v>9.0742388348448202</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>182</v>
       </c>
@@ -7056,11 +6511,9 @@
       <c r="E272" s="2">
         <v>9</v>
       </c>
-      <c r="F272" s="3">
-        <v>10.6822886345354</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>338</v>
       </c>
@@ -7076,11 +6529,9 @@
       <c r="E273" s="2">
         <v>9</v>
       </c>
-      <c r="F273" s="3">
-        <v>11.9715320587423</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>339</v>
       </c>
@@ -7096,11 +6547,9 @@
       <c r="E274" s="2">
         <v>9</v>
       </c>
-      <c r="F274" s="3">
-        <v>12.177117114365799</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>340</v>
       </c>
@@ -7116,11 +6565,9 @@
       <c r="E275" s="2">
         <v>9</v>
       </c>
-      <c r="F275" s="3">
-        <v>11.1205940816767</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="F275" s="3"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>183</v>
       </c>
@@ -7136,11 +6583,9 @@
       <c r="E276" s="2">
         <v>10</v>
       </c>
-      <c r="F276" s="3">
-        <v>9.6772711431999898</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>184</v>
       </c>
@@ -7156,11 +6601,9 @@
       <c r="E277" s="2">
         <v>10</v>
       </c>
-      <c r="F277" s="3">
-        <v>9.1541733428957794</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>185</v>
       </c>
@@ -7176,11 +6619,9 @@
       <c r="E278" s="2">
         <v>10</v>
       </c>
-      <c r="F278" s="3">
-        <v>7.1265217484606698</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>341</v>
       </c>
@@ -7196,11 +6637,9 @@
       <c r="E279" s="2">
         <v>10</v>
       </c>
-      <c r="F279" s="3">
-        <v>10.6623473852493</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>342</v>
       </c>
@@ -7216,11 +6655,9 @@
       <c r="E280" s="2">
         <v>10</v>
       </c>
-      <c r="F280" s="3">
-        <v>9.6594233816193409</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>343</v>
       </c>
@@ -7236,11 +6673,9 @@
       <c r="E281" s="2">
         <v>10</v>
       </c>
-      <c r="F281" s="3">
-        <v>8.4277652662619396</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>186</v>
       </c>
@@ -7256,11 +6691,9 @@
       <c r="E282" s="2">
         <v>10</v>
       </c>
-      <c r="F282" s="3">
-        <v>10.469931983442301</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>187</v>
       </c>
@@ -7276,11 +6709,9 @@
       <c r="E283" s="2">
         <v>10</v>
       </c>
-      <c r="F283" s="3">
-        <v>9.6952513550013695</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+      <c r="F283" s="3"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>188</v>
       </c>
@@ -7296,11 +6727,9 @@
       <c r="E284" s="2">
         <v>10</v>
       </c>
-      <c r="F284" s="3">
-        <v>8.6044082344530608</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="F284" s="3"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>344</v>
       </c>
@@ -7316,11 +6745,9 @@
       <c r="E285" s="2">
         <v>10</v>
       </c>
-      <c r="F285" s="3">
-        <v>10.300825040126</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="F285" s="3"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>345</v>
       </c>
@@ -7336,11 +6763,9 @@
       <c r="E286" s="2">
         <v>10</v>
       </c>
-      <c r="F286" s="3">
-        <v>10.671012618730501</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
+      <c r="F286" s="3"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>346</v>
       </c>
@@ -7356,11 +6781,9 @@
       <c r="E287" s="2">
         <v>10</v>
       </c>
-      <c r="F287" s="3">
-        <v>9.9222929801134203</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>189</v>
       </c>
@@ -7376,11 +6799,9 @@
       <c r="E288" s="2">
         <v>10</v>
       </c>
-      <c r="F288" s="3">
-        <v>9.6496071812788191</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>190</v>
       </c>
@@ -7396,11 +6817,9 @@
       <c r="E289" s="2">
         <v>10</v>
       </c>
-      <c r="F289" s="3">
-        <v>8.1389014749065005</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>191</v>
       </c>
@@ -7416,11 +6835,9 @@
       <c r="E290" s="2">
         <v>10</v>
       </c>
-      <c r="F290" s="3">
-        <v>7.7348857434070997</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>402</v>
       </c>
@@ -7436,11 +6853,9 @@
       <c r="E291" s="2">
         <v>10</v>
       </c>
-      <c r="F291" s="3">
-        <v>10.042694708684101</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>347</v>
       </c>
@@ -7456,11 +6871,9 @@
       <c r="E292" s="2">
         <v>10</v>
       </c>
-      <c r="F292" s="3">
-        <v>9.4640717998993402</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>348</v>
       </c>
@@ -7476,11 +6889,9 @@
       <c r="E293" s="2">
         <v>10</v>
       </c>
-      <c r="F293" s="3">
-        <v>7507.8382137026201</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="F293" s="3"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>192</v>
       </c>
@@ -7496,11 +6907,9 @@
       <c r="E294" s="2">
         <v>10</v>
       </c>
-      <c r="F294" s="3">
-        <v>8.8380012407993291</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>193</v>
       </c>
@@ -7516,11 +6925,9 @@
       <c r="E295" s="2">
         <v>10</v>
       </c>
-      <c r="F295" s="3">
-        <v>8.7628099835922697</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="F295" s="3"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>194</v>
       </c>
@@ -7536,11 +6943,9 @@
       <c r="E296" s="2">
         <v>10</v>
       </c>
-      <c r="F296" s="3">
-        <v>8.1727528989650207</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="F296" s="3"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>349</v>
       </c>
@@ -7556,11 +6961,9 @@
       <c r="E297" s="2">
         <v>10</v>
       </c>
-      <c r="F297" s="3">
-        <v>8.3923537073407903</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="F297" s="3"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>350</v>
       </c>
@@ -7576,11 +6979,9 @@
       <c r="E298" s="2">
         <v>10</v>
       </c>
-      <c r="F298" s="3">
-        <v>8.0971076639944908</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="F298" s="3"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>351</v>
       </c>
@@ -7596,11 +6997,9 @@
       <c r="E299" s="2">
         <v>10</v>
       </c>
-      <c r="F299" s="3">
-        <v>7.7217350752117797</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="F299" s="3"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>195</v>
       </c>
@@ -7616,11 +7015,9 @@
       <c r="E300" s="2">
         <v>10</v>
       </c>
-      <c r="F300" s="3">
-        <v>8.0306416921030603</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="F300" s="3"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>196</v>
       </c>
@@ -7636,11 +7033,9 @@
       <c r="E301" s="2">
         <v>10</v>
       </c>
-      <c r="F301" s="3">
-        <v>8.8141981268475895</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="F301" s="3"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>197</v>
       </c>
@@ -7656,11 +7051,9 @@
       <c r="E302" s="2">
         <v>10</v>
       </c>
-      <c r="F302" s="3">
-        <v>8.5633803283734604</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>352</v>
       </c>
@@ -7676,11 +7069,9 @@
       <c r="E303" s="2">
         <v>10</v>
       </c>
-      <c r="F303" s="3">
-        <v>9.3385679504130898</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="F303" s="3"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>353</v>
       </c>
@@ -7696,11 +7087,9 @@
       <c r="E304" s="2">
         <v>10</v>
       </c>
-      <c r="F304" s="3">
-        <v>9.00069379011744</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>198</v>
       </c>
@@ -7716,11 +7105,9 @@
       <c r="E305" s="2">
         <v>10</v>
       </c>
-      <c r="F305" s="3">
-        <v>9.0076104052211701</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>199</v>
       </c>
@@ -7736,11 +7123,9 @@
       <c r="E306" s="2">
         <v>10</v>
       </c>
-      <c r="F306" s="3">
-        <v>7.2595166808752198</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>200</v>
       </c>
@@ -7756,11 +7141,9 @@
       <c r="E307" s="2">
         <v>10</v>
       </c>
-      <c r="F307" s="3">
-        <v>6.4527032972027802</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="F307" s="3"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>354</v>
       </c>
@@ -7776,11 +7159,9 @@
       <c r="E308" s="2">
         <v>10</v>
       </c>
-      <c r="F308" s="3">
-        <v>12.4712051896067</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>355</v>
       </c>
@@ -7796,11 +7177,9 @@
       <c r="E309" s="2">
         <v>10</v>
       </c>
-      <c r="F309" s="3">
-        <v>11.384574488450999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>356</v>
       </c>
@@ -7816,11 +7195,9 @@
       <c r="E310" s="2">
         <v>10</v>
       </c>
-      <c r="F310" s="3">
-        <v>7211.2278247997201</v>
-      </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>201</v>
       </c>
@@ -7836,11 +7213,9 @@
       <c r="E311" s="2">
         <v>11</v>
       </c>
-      <c r="F311" s="3">
-        <v>10.1545628927728</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="F311" s="3"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>202</v>
       </c>
@@ -7856,11 +7231,9 @@
       <c r="E312" s="2">
         <v>11</v>
       </c>
-      <c r="F312" s="3">
-        <v>7.3039558534636297</v>
-      </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="F312" s="3"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>203</v>
       </c>
@@ -7876,11 +7249,9 @@
       <c r="E313" s="2">
         <v>11</v>
       </c>
-      <c r="F313" s="3">
-        <v>7.4073394172357601</v>
-      </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>357</v>
       </c>
@@ -7896,11 +7267,9 @@
       <c r="E314" s="2">
         <v>11</v>
       </c>
-      <c r="F314" s="3">
-        <v>10.976216181585</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="F314" s="3"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>358</v>
       </c>
@@ -7916,11 +7285,9 @@
       <c r="E315" s="2">
         <v>11</v>
       </c>
-      <c r="F315" s="3">
-        <v>7150.0904156356701</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="F315" s="3"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>359</v>
       </c>
@@ -7936,11 +7303,9 @@
       <c r="E316" s="2">
         <v>11</v>
       </c>
-      <c r="F316" s="3">
-        <v>9.9007504346387591</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="F316" s="3"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>204</v>
       </c>
@@ -7956,11 +7321,9 @@
       <c r="E317" s="2">
         <v>11</v>
       </c>
-      <c r="F317" s="3">
-        <v>8.1268940389793194</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>205</v>
       </c>
@@ -7976,11 +7339,9 @@
       <c r="E318" s="2">
         <v>11</v>
       </c>
-      <c r="F318" s="3">
-        <v>8.1045686685948297</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
+      <c r="F318" s="3"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>206</v>
       </c>
@@ -7996,11 +7357,9 @@
       <c r="E319" s="2">
         <v>11</v>
       </c>
-      <c r="F319" s="3">
-        <v>8.3346586220842003</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="F319" s="3"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>360</v>
       </c>
@@ -8016,11 +7375,9 @@
       <c r="E320" s="2">
         <v>11</v>
       </c>
-      <c r="F320" s="3">
-        <v>7067.3537107474604</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
+      <c r="F320" s="3"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>361</v>
       </c>
@@ -8036,11 +7393,9 @@
       <c r="E321" s="2">
         <v>11</v>
       </c>
-      <c r="F321" s="3">
-        <v>8.3052377058069702</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
+      <c r="F321" s="3"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>362</v>
       </c>
@@ -8056,11 +7411,9 @@
       <c r="E322" s="2">
         <v>11</v>
       </c>
-      <c r="F322" s="3">
-        <v>6328.4782437076801</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>207</v>
       </c>
@@ -8076,11 +7429,9 @@
       <c r="E323" s="2">
         <v>11</v>
       </c>
-      <c r="F323" s="3">
-        <v>11.9331143015092</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>208</v>
       </c>
@@ -8096,11 +7447,9 @@
       <c r="E324" s="2">
         <v>11</v>
       </c>
-      <c r="F324" s="3">
-        <v>9.52168738638278</v>
-      </c>
-    </row>
-    <row r="325" spans="1:6">
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>209</v>
       </c>
@@ -8116,11 +7465,9 @@
       <c r="E325" s="2">
         <v>11</v>
       </c>
-      <c r="F325" s="3">
-        <v>9.2873191192817597</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="F325" s="3"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>363</v>
       </c>
@@ -8136,11 +7483,9 @@
       <c r="E326" s="2">
         <v>11</v>
       </c>
-      <c r="F326" s="3">
-        <v>10.931225297215001</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6">
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>364</v>
       </c>
@@ -8156,11 +7501,9 @@
       <c r="E327" s="2">
         <v>11</v>
       </c>
-      <c r="F327" s="3">
-        <v>9.4962637468052407</v>
-      </c>
-    </row>
-    <row r="328" spans="1:6">
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>365</v>
       </c>
@@ -8176,11 +7519,9 @@
       <c r="E328" s="2">
         <v>11</v>
       </c>
-      <c r="F328" s="3">
-        <v>9.7683926812576694</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>210</v>
       </c>
@@ -8196,11 +7537,9 @@
       <c r="E329" s="2">
         <v>11</v>
       </c>
-      <c r="F329" s="3">
-        <v>12.049621558349701</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>211</v>
       </c>
@@ -8216,11 +7555,9 @@
       <c r="E330" s="2">
         <v>11</v>
       </c>
-      <c r="F330" s="3">
-        <v>10.8982804374095</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>212</v>
       </c>
@@ -8236,11 +7573,9 @@
       <c r="E331" s="2">
         <v>11</v>
       </c>
-      <c r="F331" s="3">
-        <v>10.5427700458893</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>366</v>
       </c>
@@ -8256,11 +7591,9 @@
       <c r="E332" s="2">
         <v>11</v>
       </c>
-      <c r="F332" s="3">
-        <v>8.9106504510134901</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
+      <c r="F332" s="3"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>367</v>
       </c>
@@ -8276,11 +7609,9 @@
       <c r="E333" s="2">
         <v>11</v>
       </c>
-      <c r="F333" s="3">
-        <v>8.2522913186318494</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
+      <c r="F333" s="3"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>368</v>
       </c>
@@ -8296,11 +7627,9 @@
       <c r="E334" s="2">
         <v>11</v>
       </c>
-      <c r="F334" s="3">
-        <v>6471.5815418562197</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>213</v>
       </c>
@@ -8316,11 +7645,9 @@
       <c r="E335" s="2">
         <v>11</v>
       </c>
-      <c r="F335" s="3">
-        <v>11.616017928724901</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>214</v>
       </c>
@@ -8336,11 +7663,9 @@
       <c r="E336" s="2">
         <v>11</v>
       </c>
-      <c r="F336" s="3">
-        <v>8.0801049102663605</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
+      <c r="F336" s="3"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>215</v>
       </c>
@@ -8356,11 +7681,9 @@
       <c r="E337" s="2">
         <v>11</v>
       </c>
-      <c r="F337" s="3">
-        <v>10.520391531050899</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>369</v>
       </c>
@@ -8376,11 +7699,9 @@
       <c r="E338" s="2">
         <v>11</v>
       </c>
-      <c r="F338" s="3">
-        <v>10.3613194294702</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
+      <c r="F338" s="3"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>370</v>
       </c>
@@ -8396,11 +7717,9 @@
       <c r="E339" s="2">
         <v>11</v>
       </c>
-      <c r="F339" s="3">
-        <v>9.4206442207881906</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
+      <c r="F339" s="3"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>371</v>
       </c>
@@ -8416,11 +7735,9 @@
       <c r="E340" s="2">
         <v>11</v>
       </c>
-      <c r="F340" s="3">
-        <v>7172.5911915063398</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>400</v>
       </c>
@@ -8436,11 +7753,9 @@
       <c r="E341" s="2">
         <v>11</v>
       </c>
-      <c r="F341" s="3">
-        <v>7432.2020015137296</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>401</v>
       </c>
@@ -8456,11 +7771,9 @@
       <c r="E342" s="2">
         <v>11</v>
       </c>
-      <c r="F342" s="3">
-        <v>5952.3606626093697</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>216</v>
       </c>
@@ -8476,11 +7789,9 @@
       <c r="E343" s="2">
         <v>11</v>
       </c>
-      <c r="F343" s="3">
-        <v>9.4357302561666305</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
+      <c r="F343" s="3"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>217</v>
       </c>
@@ -8496,11 +7807,9 @@
       <c r="E344" s="2">
         <v>11</v>
       </c>
-      <c r="F344" s="3">
-        <v>8.3302573389866694</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
+      <c r="F344" s="3"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>218</v>
       </c>
@@ -8516,11 +7825,9 @@
       <c r="E345" s="2">
         <v>11</v>
       </c>
-      <c r="F345" s="3">
-        <v>6481.7067824223604</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6">
+      <c r="F345" s="3"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>372</v>
       </c>
@@ -8536,11 +7843,9 @@
       <c r="E346" s="2">
         <v>11</v>
       </c>
-      <c r="F346" s="3">
-        <v>8.7705672536280801</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6">
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>219</v>
       </c>
@@ -8556,11 +7861,9 @@
       <c r="E347" s="2">
         <v>12</v>
       </c>
-      <c r="F347" s="3">
-        <v>10.5526761605337</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6">
+      <c r="F347" s="3"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>220</v>
       </c>
@@ -8576,11 +7879,9 @@
       <c r="E348" s="2">
         <v>12</v>
       </c>
-      <c r="F348" s="3">
-        <v>8.3168919219505106</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6">
+      <c r="F348" s="3"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>221</v>
       </c>
@@ -8596,11 +7897,9 @@
       <c r="E349" s="2">
         <v>12</v>
       </c>
-      <c r="F349" s="3">
-        <v>8.84771680655669</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6">
+      <c r="F349" s="3"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>373</v>
       </c>
@@ -8616,11 +7915,9 @@
       <c r="E350" s="2">
         <v>12</v>
       </c>
-      <c r="F350" s="3">
-        <v>9.1472190651461602</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6">
+      <c r="F350" s="3"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>374</v>
       </c>
@@ -8636,11 +7933,9 @@
       <c r="E351" s="2">
         <v>12</v>
       </c>
-      <c r="F351" s="3">
-        <v>8.1036230966552196</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6">
+      <c r="F351" s="3"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>222</v>
       </c>
@@ -8656,11 +7951,9 @@
       <c r="E352" s="2">
         <v>12</v>
       </c>
-      <c r="F352" s="3">
-        <v>11.905493587281301</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6">
+      <c r="F352" s="3"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>223</v>
       </c>
@@ -8676,11 +7969,9 @@
       <c r="E353" s="2">
         <v>12</v>
       </c>
-      <c r="F353" s="3">
-        <v>8.4835284056953508</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6">
+      <c r="F353" s="3"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>224</v>
       </c>
@@ -8696,11 +7987,9 @@
       <c r="E354" s="2">
         <v>12</v>
       </c>
-      <c r="F354" s="3">
-        <v>9.4702780396964705</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6">
+      <c r="F354" s="3"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>375</v>
       </c>
@@ -8716,11 +8005,9 @@
       <c r="E355" s="2">
         <v>12</v>
       </c>
-      <c r="F355" s="3">
-        <v>8.9169974053505996</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6">
+      <c r="F355" s="3"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>376</v>
       </c>
@@ -8736,11 +8023,9 @@
       <c r="E356" s="2">
         <v>12</v>
       </c>
-      <c r="F356" s="3">
-        <v>9.4081161560857396</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6">
+      <c r="F356" s="3"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>377</v>
       </c>
@@ -8756,11 +8041,9 @@
       <c r="E357" s="2">
         <v>12</v>
       </c>
-      <c r="F357" s="3">
-        <v>7193.9722550962697</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6">
+      <c r="F357" s="3"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>225</v>
       </c>
@@ -8776,11 +8059,9 @@
       <c r="E358" s="2">
         <v>12</v>
       </c>
-      <c r="F358" s="3">
-        <v>12.105468584154</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6">
+      <c r="F358" s="3"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>226</v>
       </c>
@@ -8796,11 +8077,9 @@
       <c r="E359" s="2">
         <v>12</v>
       </c>
-      <c r="F359" s="3">
-        <v>9.0535711138386503</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6">
+      <c r="F359" s="3"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>227</v>
       </c>
@@ -8816,11 +8095,9 @@
       <c r="E360" s="2">
         <v>12</v>
       </c>
-      <c r="F360" s="3">
-        <v>9.1024412965654395</v>
-      </c>
-    </row>
-    <row r="361" spans="1:6">
+      <c r="F360" s="3"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>378</v>
       </c>
@@ -8836,11 +8113,9 @@
       <c r="E361" s="2">
         <v>12</v>
       </c>
-      <c r="F361" s="3">
-        <v>8.1763434091711105</v>
-      </c>
-    </row>
-    <row r="362" spans="1:6">
+      <c r="F361" s="3"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>379</v>
       </c>
@@ -8856,11 +8131,9 @@
       <c r="E362" s="2">
         <v>12</v>
       </c>
-      <c r="F362" s="3">
-        <v>10.148432423058299</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>380</v>
       </c>
@@ -8876,11 +8149,9 @@
       <c r="E363" s="2">
         <v>12</v>
       </c>
-      <c r="F363" s="3">
-        <v>9.0124484510639995</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6">
+      <c r="F363" s="3"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>228</v>
       </c>
@@ -8896,11 +8167,9 @@
       <c r="E364" s="2">
         <v>13</v>
       </c>
-      <c r="F364" s="3">
-        <v>12.4345574502349</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6">
+      <c r="F364" s="3"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>229</v>
       </c>
@@ -8916,11 +8185,9 @@
       <c r="E365" s="2">
         <v>13</v>
       </c>
-      <c r="F365" s="3">
-        <v>7.6497625383430004</v>
-      </c>
-    </row>
-    <row r="366" spans="1:6">
+      <c r="F365" s="3"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>230</v>
       </c>
@@ -8936,11 +8203,9 @@
       <c r="E366" s="2">
         <v>13</v>
       </c>
-      <c r="F366" s="3">
-        <v>8.8633931124208196</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6">
+      <c r="F366" s="3"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>381</v>
       </c>
@@ -8956,11 +8221,9 @@
       <c r="E367" s="2">
         <v>13</v>
       </c>
-      <c r="F367" s="3">
-        <v>12.5110921870401</v>
-      </c>
-    </row>
-    <row r="368" spans="1:6">
+      <c r="F367" s="3"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>382</v>
       </c>
@@ -8976,11 +8239,9 @@
       <c r="E368" s="2">
         <v>13</v>
       </c>
-      <c r="F368" s="3">
-        <v>7.8097502857351104</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6">
+      <c r="F368" s="3"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>383</v>
       </c>
@@ -8996,11 +8257,9 @@
       <c r="E369" s="2">
         <v>13</v>
       </c>
-      <c r="F369" s="3">
-        <v>7.9732489519790404</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6">
+      <c r="F369" s="3"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>231</v>
       </c>
@@ -9016,11 +8275,9 @@
       <c r="E370" s="2">
         <v>13</v>
       </c>
-      <c r="F370" s="3">
-        <v>10.4387441272951</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6">
+      <c r="F370" s="3"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>232</v>
       </c>
@@ -9036,11 +8293,9 @@
       <c r="E371" s="2">
         <v>13</v>
       </c>
-      <c r="F371" s="3">
-        <v>8.3268289005270599</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6">
+      <c r="F371" s="3"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>233</v>
       </c>
@@ -9056,11 +8311,9 @@
       <c r="E372" s="2">
         <v>13</v>
       </c>
-      <c r="F372" s="3">
-        <v>8.4758838888600501</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
+      <c r="F372" s="3"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>384</v>
       </c>
@@ -9076,11 +8329,9 @@
       <c r="E373" s="2">
         <v>13</v>
       </c>
-      <c r="F373" s="3">
-        <v>10.7860018691508</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6">
+      <c r="F373" s="3"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>385</v>
       </c>
@@ -9096,11 +8347,9 @@
       <c r="E374" s="2">
         <v>13</v>
       </c>
-      <c r="F374" s="3">
-        <v>9.1753000532873799</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6">
+      <c r="F374" s="3"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>386</v>
       </c>
@@ -9116,11 +8365,9 @@
       <c r="E375" s="2">
         <v>13</v>
       </c>
-      <c r="F375" s="3">
-        <v>8.9762898569315297</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6">
+      <c r="F375" s="3"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>234</v>
       </c>
@@ -9136,11 +8383,9 @@
       <c r="E376" s="2">
         <v>13</v>
       </c>
-      <c r="F376" s="3">
-        <v>12.503354628576799</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6">
+      <c r="F376" s="3"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>235</v>
       </c>
@@ -9156,11 +8401,9 @@
       <c r="E377" s="2">
         <v>13</v>
       </c>
-      <c r="F377" s="3">
-        <v>13.522429909488601</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6">
+      <c r="F377" s="3"/>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>236</v>
       </c>
@@ -9176,11 +8419,9 @@
       <c r="E378" s="2">
         <v>13</v>
       </c>
-      <c r="F378" s="3">
-        <v>13.4205289476911</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6">
+      <c r="F378" s="3"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>387</v>
       </c>
@@ -9196,11 +8437,9 @@
       <c r="E379" s="2">
         <v>13</v>
       </c>
-      <c r="F379" s="3">
-        <v>13.100253145367001</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6">
+      <c r="F379" s="3"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>388</v>
       </c>
@@ -9216,11 +8455,9 @@
       <c r="E380" s="2">
         <v>13</v>
       </c>
-      <c r="F380" s="3">
-        <v>11.2332685859427</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6">
+      <c r="F380" s="3"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>389</v>
       </c>
@@ -9236,11 +8473,9 @@
       <c r="E381" s="2">
         <v>13</v>
       </c>
-      <c r="F381" s="3">
-        <v>9.5330886498247107</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6">
+      <c r="F381" s="3"/>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>237</v>
       </c>
@@ -9256,11 +8491,9 @@
       <c r="E382" s="2">
         <v>14</v>
       </c>
-      <c r="F382" s="3">
-        <v>12.6467803966733</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6">
+      <c r="F382" s="3"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>238</v>
       </c>
@@ -9276,11 +8509,9 @@
       <c r="E383" s="2">
         <v>14</v>
       </c>
-      <c r="F383" s="3">
-        <v>7.3978472859058702</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6">
+      <c r="F383" s="3"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>239</v>
       </c>
@@ -9296,11 +8527,9 @@
       <c r="E384" s="2">
         <v>14</v>
       </c>
-      <c r="F384" s="3">
-        <v>8.49359775677652</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
+      <c r="F384" s="3"/>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>390</v>
       </c>
@@ -9316,11 +8545,9 @@
       <c r="E385" s="2">
         <v>14</v>
       </c>
-      <c r="F385" s="3">
-        <v>13.0336752639971</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6">
+      <c r="F385" s="3"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>391</v>
       </c>
@@ -9336,11 +8563,9 @@
       <c r="E386" s="2">
         <v>14</v>
       </c>
-      <c r="F386" s="3">
-        <v>8.0676255495044291</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6">
+      <c r="F386" s="3"/>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>392</v>
       </c>
@@ -9356,11 +8581,9 @@
       <c r="E387" s="2">
         <v>14</v>
       </c>
-      <c r="F387" s="3">
-        <v>7.8132239225643199</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6">
+      <c r="F387" s="3"/>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>240</v>
       </c>
@@ -9376,11 +8599,9 @@
       <c r="E388" s="2">
         <v>14</v>
       </c>
-      <c r="F388" s="3">
-        <v>12.8364694103307</v>
-      </c>
-    </row>
-    <row r="389" spans="1:6">
+      <c r="F388" s="3"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>241</v>
       </c>
@@ -9396,11 +8617,9 @@
       <c r="E389" s="2">
         <v>14</v>
       </c>
-      <c r="F389" s="3">
-        <v>8.9424085133628708</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6">
+      <c r="F389" s="3"/>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>242</v>
       </c>
@@ -9416,11 +8635,9 @@
       <c r="E390" s="2">
         <v>14</v>
       </c>
-      <c r="F390" s="3">
-        <v>13.418729195349799</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6">
+      <c r="F390" s="3"/>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>393</v>
       </c>
@@ -9436,11 +8653,9 @@
       <c r="E391" s="2">
         <v>14</v>
       </c>
-      <c r="F391" s="3">
-        <v>15.4215641320676</v>
-      </c>
-    </row>
-    <row r="392" spans="1:6">
+      <c r="F391" s="3"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>394</v>
       </c>
@@ -9456,11 +8671,9 @@
       <c r="E392" s="2">
         <v>14</v>
       </c>
-      <c r="F392" s="3">
-        <v>14.533683728368599</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6">
+      <c r="F392" s="3"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>395</v>
       </c>
@@ -9476,11 +8689,9 @@
       <c r="E393" s="2">
         <v>14</v>
       </c>
-      <c r="F393" s="3">
-        <v>12.8404410349749</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6">
+      <c r="F393" s="3"/>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>243</v>
       </c>
@@ -9496,11 +8707,9 @@
       <c r="E394" s="2">
         <v>14</v>
       </c>
-      <c r="F394" s="3">
-        <v>13.6885233374707</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6">
+      <c r="F394" s="3"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>244</v>
       </c>
@@ -9516,11 +8725,9 @@
       <c r="E395" s="2">
         <v>14</v>
       </c>
-      <c r="F395" s="3">
-        <v>10.576934026546599</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6">
+      <c r="F395" s="3"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>245</v>
       </c>
@@ -9536,11 +8743,9 @@
       <c r="E396" s="2">
         <v>14</v>
       </c>
-      <c r="F396" s="3">
-        <v>9.5567256118897408</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6">
+      <c r="F396" s="3"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>396</v>
       </c>
@@ -9556,11 +8761,9 @@
       <c r="E397" s="2">
         <v>14</v>
       </c>
-      <c r="F397" s="3">
-        <v>16.437430001948702</v>
-      </c>
-    </row>
-    <row r="398" spans="1:6">
+      <c r="F397" s="3"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>397</v>
       </c>
@@ -9576,11 +8779,9 @@
       <c r="E398" s="2">
         <v>14</v>
       </c>
-      <c r="F398" s="3">
-        <v>13.5942093908968</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6">
+      <c r="F398" s="3"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>398</v>
       </c>
@@ -9596,22 +8797,17 @@
       <c r="E399" s="2">
         <v>14</v>
       </c>
-      <c r="F399" s="3">
-        <v>12.096933673585101</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6">
+      <c r="F399" s="3"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B400" s="2"/>
     </row>
-    <row r="401" spans="2:2">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B401" s="2"/>
     </row>
-    <row r="402" spans="2:2">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B402" s="2"/>
     </row>
-    <row r="403" spans="2:2" hidden="1"/>
-    <row r="404" spans="2:2" hidden="1"/>
-    <row r="405" spans="2:2" hidden="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
